--- a/output/graphs/result_tables_CV.xlsx
+++ b/output/graphs/result_tables_CV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\FoodSecurityPrediction\output\graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C4C532-54F2-42EC-8686-F79258378BBA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2A3BBD-B638-4912-BB28-571F976EFEB0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="150" windowWidth="28800" windowHeight="11385" activeTab="1" xr2:uid="{54AE0D98-3B88-4603-B9E4-29265E419FBE}"/>
+    <workbookView xWindow="17100" yWindow="1665" windowWidth="17145" windowHeight="11385" activeTab="1" xr2:uid="{54AE0D98-3B88-4603-B9E4-29265E419FBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure1" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -139,7 +139,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C49E6F8-80E3-4141-B3CA-3A3CB4699E5E}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,114 +521,97 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>0.45977011494252801</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>0.23202614379084899</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>0.18021978021978</v>
       </c>
       <c r="G3" s="2">
-        <v>0.67390849116512197</v>
+        <v>0.76141393452686101</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>0.11111111111111099</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>0.178451178451178</v>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
+        <v>0.136950904392764</v>
       </c>
       <c r="G4" s="2">
-        <v>0.82561183706583496</v>
+        <v>0.73189483976528902</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>0.11434108527131701</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>0.198653198653198</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>0.14514145141451401</v>
       </c>
       <c r="G5" s="2">
-        <v>0.536693409551384</v>
+        <v>0.74857900114636999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.10507936507936499</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.36609686609686598</v>
-      </c>
-      <c r="F6" s="2">
-        <v>9.5837751855779404E-2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.507963968038594</v>
-      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2">
-        <v>0.11111111111111099</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>0.178451178451178</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>0.136950904392764</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>0.73189483976528902</v>
+        <v>0.67390849116512197</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -639,134 +622,117 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2">
-        <v>0.122501611863313</v>
+        <v>0.14374225526641801</v>
       </c>
       <c r="E8" s="2">
-        <v>0.29457364341085202</v>
+        <v>0.17984496124030999</v>
       </c>
       <c r="F8" s="2">
-        <v>0.173041894353369</v>
+        <v>0.15977961432506799</v>
       </c>
       <c r="G8" s="2">
-        <v>0.58665512598360903</v>
+        <v>0.63201295011590897</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>0.122501611863313</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>0.29457364341085202</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>0.173041894353369</v>
       </c>
       <c r="G9" s="2">
-        <v>0.82578775373413504</v>
+        <v>0.58665512598360903</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>0.11373873873873799</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>0.156589147286821</v>
       </c>
       <c r="F10" s="2">
-        <v>0</v>
+        <v>0.13176777560339201</v>
       </c>
       <c r="G10" s="2">
-        <v>0.58260013649932896</v>
+        <v>0.59033992015150905</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3.7037037037037E-2</v>
-      </c>
-      <c r="F11" s="2">
-        <v>6.6666666666666596E-2</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.64650233680084401</v>
-      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2">
-        <v>0.45977011494252801</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>0.23202614379084899</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>0.18021978021978</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>0.76141393452686101</v>
+        <v>0.82561183706583496</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="2">
-        <v>0.14374225526641801</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>0.17984496124030999</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>0.15977961432506799</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>0.63201295011590897</v>
+        <v>0.83663746222981805</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -777,7 +743,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -789,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>0.83663746222981805</v>
+        <v>0.82578775373413504</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -797,10 +763,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -812,76 +778,59 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>0.59032924969622502</v>
+        <v>0.82738704887020598</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="E16" s="2">
-        <v>8.8319088319088301E-2</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.15268817204301</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.69219810040705498</v>
-      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D17" s="2">
-        <v>0.11434108527131701</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>0.198653198653198</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>0.14514145141451401</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>0.74857900114636999</v>
+        <v>0.536693409551384</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="2">
-        <v>0.11373873873873799</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>0.156589147286821</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>0.13176777560339201</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2">
-        <v>0.59033992015150905</v>
+        <v>0.59032924969622502</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -889,10 +838,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -904,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>0.82738704887020598</v>
+        <v>0.58260013649932896</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -931,32 +880,108 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.10507936507936499</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.36609686609686598</v>
+      </c>
+      <c r="F22" s="2">
+        <v>9.5837751855779404E-2</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.507963968038594</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E23" s="2">
+        <v>8.8319088319088301E-2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.15268817204301</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.69219810040705498</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3.7037037037037E-2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.64650233680084401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
         <v>0.67405020352781497</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F21">
-    <sortCondition ref="C2:C21"/>
-    <sortCondition ref="A2:A21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G28">
+    <sortCondition ref="A2:A28"/>
+    <sortCondition ref="B2:B28"/>
+    <sortCondition ref="C2:C28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -964,10 +989,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B57B5D-C118-41FF-9CD8-5E78C409E0E3}">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="I51" sqref="F2:I51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,16 +1050,16 @@
       <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>0.33333333333333298</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>1.47058823529411E-2</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>2.8169014084507001E-2</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>0.75173344998402103</v>
       </c>
       <c r="N2" s="1"/>
@@ -1044,104 +1069,80 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="str">
         <f>CONCATENATE(A3&amp;"-"&amp;B3)</f>
-        <v>Malawi-rCSI</v>
+        <v>Malawi-FCS</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2">
-        <v>0.13613231552162799</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.16589147286821701</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.14954577218728099</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.57483595147414301</v>
+      <c r="F3" s="1">
+        <v>0.219780219780219</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.14705882352941099</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.17621145374449301</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.69324268333761396</v>
       </c>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="str">
         <f>CONCATENATE(A4&amp;"-"&amp;B4)</f>
-        <v>Tanzania-FCS</v>
+        <v>Malawi-FCS</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.83474699628847304</v>
+      <c r="F4" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7.3529411764705803E-3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.4388489208633001E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.74179086843368103</v>
       </c>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="str">
-        <f>CONCATENATE(A5&amp;"-"&amp;B5)</f>
-        <v>Tanzania-rCSI</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.59690273222467305</v>
-      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="str">
         <f>CONCATENATE(A6&amp;"-"&amp;B6)</f>
-        <v>Uganda-FCS</v>
+        <v>Malawi-rCSI</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1149,17 +1150,17 @@
       <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="2">
-        <v>0.13227513227513199</v>
-      </c>
-      <c r="G6" s="2">
-        <v>8.8319088319088301E-2</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.10370370370370301</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.68337102366953095</v>
+      <c r="F6" s="1">
+        <v>0.13613231552162799</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.16589147286821701</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.14954577218728099</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.57483595147414301</v>
       </c>
       <c r="N6" s="1"/>
     </row>
@@ -1168,11 +1169,11 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="str">
         <f>CONCATENATE(A7&amp;"-"&amp;B7)</f>
-        <v>Malawi-FCS</v>
+        <v>Malawi-rCSI</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -1180,18 +1181,19 @@
       <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="2">
-        <v>0.219780219780219</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.14705882352941099</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.17621145374449301</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.69324268333761396</v>
-      </c>
+      <c r="F7" s="1">
+        <v>8.2858950031625495E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.20310077519379799</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.11769991015274001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.561547333104919</v>
+      </c>
+      <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1205,94 +1207,70 @@
         <v>Malawi-rCSI</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="2">
-        <v>8.2858950031625495E-2</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.20310077519379799</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.11769991015274001</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.561547333104919</v>
+      <c r="F8" s="1">
+        <v>0.12922173274596099</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.136434108527131</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.13273001508295601</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.627544903199453</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="str">
-        <f>CONCATENATE(A9&amp;"-"&amp;B9)</f>
-        <v>Tanzania-FCS</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.19191919191919099</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.42528735632183901</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.25268817204300997</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.74037188330509296</v>
-      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="str">
         <f>CONCATENATE(A10&amp;"-"&amp;B10)</f>
-        <v>Tanzania-rCSI</v>
+        <v>Tanzania-FCS</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.55398311199171701</v>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.83474699628847304</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" t="str">
         <f>CONCATENATE(A11&amp;"-"&amp;B11)</f>
-        <v>Uganda-FCS</v>
+        <v>Tanzania-FCS</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -1300,29 +1278,29 @@
       <c r="E11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="2">
-        <v>0.110926336536092</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.25925925925925902</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.145479888490641</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.62109151213628799</v>
+      <c r="F11" s="1">
+        <v>0.19191919191919099</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.42528735632183901</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.25268817204300997</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.74037188330509296</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="str">
         <f>CONCATENATE(A12&amp;"-"&amp;B12)</f>
-        <v>Malawi-FCS</v>
+        <v>Tanzania-FCS</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -1330,77 +1308,53 @@
       <c r="E12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="G12" s="2">
-        <v>7.3529411764705803E-3</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1.4388489208633001E-2</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.74179086843368103</v>
+      <c r="F12" s="1">
+        <v>7.2463768115942004E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5.7471264367816098E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>6.4102564102564097E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.83001453940990599</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="str">
-        <f>CONCATENATE(A13&amp;"-"&amp;B13)</f>
-        <v>Malawi-rCSI</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.12922173274596099</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.136434108527131</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.13273001508295601</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.627544903199453</v>
-      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="str">
         <f>CONCATENATE(A14&amp;"-"&amp;B14)</f>
-        <v>Tanzania-FCS</v>
+        <v>Tanzania-rCSI</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="2">
-        <v>7.2463768115942004E-2</v>
-      </c>
-      <c r="G14" s="2">
-        <v>5.7471264367816098E-2</v>
-      </c>
-      <c r="H14" s="2">
-        <v>6.4102564102564097E-2</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.83001453940990599</v>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.59690273222467305</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1415,34 +1369,34 @@
         <v>Tanzania-rCSI</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="2">
-        <v>1.6666666666666601E-2</v>
-      </c>
-      <c r="G15" s="2">
-        <v>6.6666666666666596E-2</v>
-      </c>
-      <c r="H15" s="2">
-        <v>2.6666666666666599E-2</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.60187868638170094</v>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.55398311199171701</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="str">
         <f>CONCATENATE(A16&amp;"-"&amp;B16)</f>
-        <v>Uganda-FCS</v>
+        <v>Tanzania-rCSI</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -1450,168 +1404,120 @@
       <c r="E16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="2">
-        <v>0.19927686600012501</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.49715099715099698</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.26817995716805199</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.655966380220111</v>
+      <c r="F16" s="1">
+        <v>1.6666666666666601E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2.6666666666666599E-2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.60187868638170094</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="str">
-        <f>CONCATENATE(A17&amp;"-"&amp;B17)</f>
-        <v>Malawi-FCS</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0.69696646868777401</v>
-      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="str">
         <f>CONCATENATE(A18&amp;"-"&amp;B18)</f>
-        <v>Malawi-rCSI</v>
+        <v>Uganda-FCS</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.67390849116512197</v>
+        <v>19</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.13227513227513199</v>
+      </c>
+      <c r="G18" s="1">
+        <v>8.8319088319088301E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.10370370370370301</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.68337102366953095</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19" t="str">
         <f>CONCATENATE(A19&amp;"-"&amp;B19)</f>
-        <v>Tanzania-FCS</v>
+        <v>Uganda-FCS</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0.82561183706583496</v>
+        <v>19</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.110926336536092</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.25925925925925902</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.145479888490641</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.62109151213628799</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" t="str">
         <f>CONCATENATE(A20&amp;"-"&amp;B20)</f>
-        <v>Tanzania-rCSI</v>
+        <v>Uganda-FCS</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0.536693409551384</v>
+        <v>19</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.19927686600012501</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.49715099715099698</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.26817995716805199</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.655966380220111</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="str">
-        <f>CONCATENATE(A21&amp;"-"&amp;B21)</f>
-        <v>Uganda-FCS</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.10507936507936499</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.36609686609686598</v>
-      </c>
-      <c r="H21" s="2">
-        <v>9.5837751855779404E-2</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0.507963968038594</v>
-      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1625,22 +1531,22 @@
         <v>Malawi-FCS</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0.38582168719155002</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0.26948405624876198</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0.31011873117136202</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0.78567388924536496</v>
+        <v>16</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.69696646868777401</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1655,22 +1561,22 @@
         <v>Malawi-rCSI</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="G23" s="2">
-        <v>4.1860465116279E-2</v>
-      </c>
-      <c r="H23" s="2">
-        <v>6.5454545454545404E-2</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0.67182717155914595</v>
+        <v>16</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.67390849116512197</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1685,22 +1591,22 @@
         <v>Tanzania-FCS</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0.82537135662774197</v>
+        <v>16</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.82561183706583496</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1715,22 +1621,22 @@
         <v>Tanzania-rCSI</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0.55161087729751701</v>
+        <v>16</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.536693409551384</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1745,94 +1651,70 @@
         <v>Uganda-FCS</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0.65603045379164704</v>
+        <v>16</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.10507936507936499</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.36609686609686598</v>
+      </c>
+      <c r="H26" s="1">
+        <v>9.5837751855779404E-2</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.507963968038594</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" t="str">
-        <f>CONCATENATE(A27&amp;"-"&amp;B27)</f>
-        <v>Malawi-FCS</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.33155555555555499</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.147851059615765</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0.140803152246814</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0.734666082053821</v>
-      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" t="str">
         <f>CONCATENATE(A28&amp;"-"&amp;B28)</f>
-        <v>Malawi-rCSI</v>
+        <v>Malawi-FCS</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0.56936899213401404</v>
+      <c r="F28" s="1">
+        <v>0.38582168719155002</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.26948405624876198</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.31011873117136202</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.78567388924536496</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29" t="str">
         <f>CONCATENATE(A29&amp;"-"&amp;B29)</f>
-        <v>Tanzania-FCS</v>
+        <v>Malawi-FCS</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
@@ -1840,107 +1722,83 @@
       <c r="E29" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0.82856908214003</v>
+      <c r="F29" s="1">
+        <v>0.33155555555555499</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.147851059615765</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.140803152246814</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.734666082053821</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" t="str">
         <f>CONCATENATE(A30&amp;"-"&amp;B30)</f>
-        <v>Tanzania-rCSI</v>
+        <v>Malawi-FCS</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0.57872991088199299</v>
+      <c r="F30" s="1">
+        <v>0.12449799196787099</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.104377104377104</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.113553113553113</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.75492039203997297</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="str">
-        <f>CONCATENATE(A31&amp;"-"&amp;B31)</f>
-        <v>Uganda-FCS</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0.65871023669531104</v>
-      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" t="str">
         <f>CONCATENATE(A32&amp;"-"&amp;B32)</f>
-        <v>Malawi-FCS</v>
+        <v>Malawi-rCSI</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="2">
-        <v>0.12449799196787099</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0.104377104377104</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0.113553113553113</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0.75492039203997297</v>
+      <c r="F32" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G32" s="1">
+        <v>4.1860465116279E-2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>6.5454545454545404E-2</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.67182717155914595</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1955,34 +1813,34 @@
         <v>Malawi-rCSI</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E33" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="2">
-        <v>0.16666666666666599</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1.2403100775193699E-2</v>
-      </c>
-      <c r="H33" s="2">
-        <v>2.3088023088023001E-2</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0.653992265621677</v>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.56936899213401404</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" t="str">
         <f>CONCATENATE(A34&amp;"-"&amp;B34)</f>
-        <v>Tanzania-FCS</v>
+        <v>Malawi-rCSI</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -1990,168 +1848,120 @@
       <c r="E34" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0.82647539492421096</v>
+      <c r="F34" s="1">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1.2403100775193699E-2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2.3088023088023001E-2</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.653992265621677</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" t="str">
-        <f>CONCATENATE(A35&amp;"-"&amp;B35)</f>
-        <v>Tanzania-rCSI</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0.58906224649102601</v>
-      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36" t="str">
         <f>CONCATENATE(A36&amp;"-"&amp;B36)</f>
-        <v>Uganda-FCS</v>
+        <v>Tanzania-FCS</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E36" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="2">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0.66140509573345296</v>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.82537135662774197</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37" t="str">
         <f>CONCATENATE(A37&amp;"-"&amp;B37)</f>
-        <v>Malawi-FCS</v>
+        <v>Tanzania-FCS</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="G37" s="2">
-        <v>1.22549019607843E-2</v>
-      </c>
-      <c r="H37" s="2">
-        <v>2.3640661938534199E-2</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0.756415501497955</v>
+        <v>17</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.82856908214003</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" t="str">
         <f>CONCATENATE(A38&amp;"-"&amp;B38)</f>
-        <v>Malawi-rCSI</v>
+        <v>Tanzania-FCS</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0.14064230343300099</v>
-      </c>
-      <c r="G38" s="2">
-        <v>0.19689922480620101</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0.16408268733850101</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0.561900391412267</v>
+        <v>17</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.82647539492421096</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="str">
-        <f>CONCATENATE(A39&amp;"-"&amp;B39)</f>
-        <v>Tanzania-FCS</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0</v>
-      </c>
-      <c r="G39" s="2">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-      <c r="I39" s="2">
-        <v>0.83610754050615999</v>
-      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -2168,169 +1978,145 @@
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0</v>
-      </c>
-      <c r="I40" s="2">
-        <v>0.60767358098714697</v>
+        <v>17</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.55161087729751701</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41" t="str">
         <f>CONCATENATE(A41&amp;"-"&amp;B41)</f>
-        <v>Uganda-FCS</v>
+        <v>Tanzania-rCSI</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0.16935483870967699</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0.25071225071225001</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0.20023391812865499</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0.67244836423940901</v>
+        <v>17</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.57872991088199299</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C42" t="str">
         <f>CONCATENATE(A42&amp;"-"&amp;B42)</f>
-        <v>Malawi-FCS</v>
+        <v>Tanzania-rCSI</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="2">
-        <v>9.23694779116465E-2</v>
-      </c>
-      <c r="G42" s="2">
-        <v>5.6372549019607802E-2</v>
-      </c>
-      <c r="H42" s="2">
-        <v>7.0015220700152203E-2</v>
-      </c>
-      <c r="I42" s="2">
-        <v>0.60244924302543201</v>
+        <v>17</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.58906224649102601</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" t="str">
-        <f>CONCATENATE(A43&amp;"-"&amp;B43)</f>
-        <v>Malawi-rCSI</v>
-      </c>
-      <c r="D43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="2">
-        <v>9.4991364421416202E-2</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0.170542635658914</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0.12201885745978901</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0.66625038235437095</v>
-      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
       <c r="C44" t="str">
         <f>CONCATENATE(A44&amp;"-"&amp;B44)</f>
-        <v>Tanzania-FCS</v>
+        <v>Uganda-FCS</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0</v>
-      </c>
-      <c r="G44" s="2">
-        <v>0</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2">
-        <v>0.767425067830659</v>
+        <v>17</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.65603045379164704</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" t="str">
         <f>CONCATENATE(A45&amp;"-"&amp;B45)</f>
-        <v>Tanzania-rCSI</v>
+        <v>Uganda-FCS</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0.13827934517589599</v>
-      </c>
-      <c r="G45" s="2">
-        <v>0.20470588235294099</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0.16441779110444699</v>
-      </c>
-      <c r="I45" s="2">
-        <v>0.58795736307294599</v>
+        <v>17</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.65871023669531104</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2345,124 +2131,100 @@
         <v>Uganda-FCS</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="2">
-        <v>5.5047882342685601E-2</v>
-      </c>
-      <c r="G46" s="2">
-        <v>0.31766381766381702</v>
-      </c>
-      <c r="H46" s="2">
-        <v>8.4198488982448597E-2</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0.503162219206995</v>
+        <v>17</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.66140509573345296</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="str">
-        <f>CONCATENATE(A47&amp;"-"&amp;B47)</f>
-        <v>Malawi-FCS</v>
-      </c>
-      <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="G47" s="2">
-        <v>4.9019607843137202E-3</v>
-      </c>
-      <c r="H47" s="2">
-        <v>9.6618357487922701E-3</v>
-      </c>
-      <c r="I47" s="2">
-        <v>0.750734693892116</v>
-      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48" t="str">
         <f>CONCATENATE(A48&amp;"-"&amp;B48)</f>
-        <v>Malawi-rCSI</v>
+        <v>Malawi-FCS</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="2">
-        <v>0.131378935939196</v>
-      </c>
-      <c r="G48" s="2">
-        <v>0.18759689922480599</v>
-      </c>
-      <c r="H48" s="2">
-        <v>0.154533844189016</v>
-      </c>
-      <c r="I48" s="2">
-        <v>0.66197892263723601</v>
+      <c r="F48" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1.22549019607843E-2</v>
+      </c>
+      <c r="H48" s="1">
+        <v>2.3640661938534199E-2</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.756415501497955</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
       <c r="C49" t="str">
         <f>CONCATENATE(A49&amp;"-"&amp;B49)</f>
-        <v>Tanzania-FCS</v>
+        <v>Malawi-FCS</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E49" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="2">
-        <v>2.5641025641025599E-2</v>
-      </c>
-      <c r="G49" s="2">
-        <v>1.1494252873563199E-2</v>
-      </c>
-      <c r="H49" s="2">
-        <v>1.5873015873015799E-2</v>
-      </c>
-      <c r="I49" s="2">
-        <v>0.82681379705725</v>
+      <c r="F49" s="1">
+        <v>9.23694779116465E-2</v>
+      </c>
+      <c r="G49" s="1">
+        <v>5.6372549019607802E-2</v>
+      </c>
+      <c r="H49" s="1">
+        <v>7.0015220700152203E-2</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0.60244924302543201</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" t="str">
         <f>CONCATENATE(A50&amp;"-"&amp;B50)</f>
-        <v>Tanzania-rCSI</v>
+        <v>Malawi-FCS</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
@@ -2470,55 +2232,408 @@
       <c r="E50" t="s">
         <v>18</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="G50" s="1">
+        <v>4.9019607843137202E-3</v>
+      </c>
+      <c r="H50" s="1">
+        <v>9.6618357487922701E-3</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.750734693892116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="str">
+        <f>CONCATENATE(A52&amp;"-"&amp;B52)</f>
+        <v>Malawi-rCSI</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.14064230343300099</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.19689922480620101</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.16408268733850101</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.561900391412267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="str">
+        <f>CONCATENATE(A53&amp;"-"&amp;B53)</f>
+        <v>Malawi-rCSI</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="1">
+        <v>9.4991364421416202E-2</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.170542635658914</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.12201885745978901</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0.66625038235437095</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="str">
+        <f>CONCATENATE(A54&amp;"-"&amp;B54)</f>
+        <v>Malawi-rCSI</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.131378935939196</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.18759689922480599</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.154533844189016</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0.66197892263723601</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="str">
+        <f>CONCATENATE(A56&amp;"-"&amp;B56)</f>
+        <v>Tanzania-FCS</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0.83610754050615999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="str">
+        <f>CONCATENATE(A57&amp;"-"&amp;B57)</f>
+        <v>Tanzania-FCS</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.767425067830659</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="str">
+        <f>CONCATENATE(A58&amp;"-"&amp;B58)</f>
+        <v>Tanzania-FCS</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2.5641025641025599E-2</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1.1494252873563199E-2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1.5873015873015799E-2</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0.82681379705725</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="str">
+        <f>CONCATENATE(A60&amp;"-"&amp;B60)</f>
+        <v>Tanzania-rCSI</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0.60767358098714697</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" t="str">
+        <f>CONCATENATE(A61&amp;"-"&amp;B61)</f>
+        <v>Tanzania-rCSI</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.13827934517589599</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.20470588235294099</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.16441779110444699</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0.58795736307294599</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" t="str">
+        <f>CONCATENATE(A62&amp;"-"&amp;B62)</f>
+        <v>Tanzania-rCSI</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="1">
         <v>5.63544500582977E-2</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G62" s="1">
         <v>0.13882352941176401</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H62" s="1">
         <v>7.8703703703703706E-2</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I62" s="1">
         <v>0.611149006824661</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>2</v>
       </c>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" t="str">
-        <f>CONCATENATE(A51&amp;"-"&amp;B51)</f>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="str">
+        <f>CONCATENATE(A64&amp;"-"&amp;B64)</f>
         <v>Uganda-FCS</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.16935483870967699</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.25071225071225001</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.20023391812865499</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0.67244836423940901</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="str">
+        <f>CONCATENATE(A65&amp;"-"&amp;B65)</f>
+        <v>Uganda-FCS</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="1">
+        <v>5.5047882342685601E-2</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.31766381766381702</v>
+      </c>
+      <c r="H65" s="1">
+        <v>8.4198488982448597E-2</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.503162219206995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="str">
+        <f>CONCATENATE(A66&amp;"-"&amp;B66)</f>
+        <v>Uganda-FCS</v>
+      </c>
+      <c r="D66" t="s">
         <v>8</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E66" t="s">
         <v>18</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F66" s="1">
         <v>0.16641500800732001</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G66" s="1">
         <v>0.565527065527065</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H66" s="1">
         <v>0.24341482686070701</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I66" s="1">
         <v>0.64852630785466603</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I51">
-    <sortCondition ref="E2:E51"/>
-    <sortCondition ref="D2:D51"/>
-    <sortCondition ref="C2:C51"/>
-    <sortCondition ref="B2:B51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I66">
+    <sortCondition ref="E2:E66"/>
+    <sortCondition ref="C2:C66"/>
+    <sortCondition ref="D2:D66"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
